--- a/CodeSystem-documentoFiscale.xlsx
+++ b/CodeSystem-documentoFiscale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.it/fhir/spesaSanitaria/CodeSystem/documentoFiscale</t>
+    <t>http://hl7.it/fhir/spesa-sanitaria/CodeSystem/documentoFiscale</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,12 +57,18 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T21:40:26+00:00</t>
+    <t>2021-10-26T14:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
@@ -108,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>15</t>
+    <t>37</t>
   </si>
   <si>
     <t>Level</t>
@@ -138,6 +144,12 @@
     <t>documento commerciale</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Nota di Credito</t>
+  </si>
+  <si>
     <t>TK</t>
   </si>
   <si>
@@ -232,6 +244,135 @@
   </si>
   <si>
     <t>Aliquota IVA</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>Escluse ex art. 15</t>
+  </si>
+  <si>
+    <t>N2.1</t>
+  </si>
+  <si>
+    <t>Non soggette ad IVA ai sensi degli artt. da 7 a 7-septies del DPR 633/72</t>
+  </si>
+  <si>
+    <t>N2.2</t>
+  </si>
+  <si>
+    <t>Non soggette – altri casi</t>
+  </si>
+  <si>
+    <t>N3.1</t>
+  </si>
+  <si>
+    <t>Non imponibili – esportazioni</t>
+  </si>
+  <si>
+    <t>N3.2</t>
+  </si>
+  <si>
+    <t>Non imponibili – cessioni intracomunitarie</t>
+  </si>
+  <si>
+    <t>N3.3</t>
+  </si>
+  <si>
+    <t>Non imponibili – cessioni verso San Marino</t>
+  </si>
+  <si>
+    <t>N3.4</t>
+  </si>
+  <si>
+    <t>Non imponibili – operazioni assimilate alle cessioni all’esportazione</t>
+  </si>
+  <si>
+    <t>N3.5</t>
+  </si>
+  <si>
+    <t>Non imponibili – a seguito di dichiarazioni d’intento</t>
+  </si>
+  <si>
+    <t>N3.6</t>
+  </si>
+  <si>
+    <t>Non imponibili – altre operazioni che non concorrono alla formazione del plafond</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>Esenti</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>Regime del margine / IVA non esposta in fattura</t>
+  </si>
+  <si>
+    <t>N6.1</t>
+  </si>
+  <si>
+    <t>Inversione contabile – cessione di rottami e altri materiali di recupero</t>
+  </si>
+  <si>
+    <t>N6.2</t>
+  </si>
+  <si>
+    <t>Inversione contabile – cessione di oro e argento puro</t>
+  </si>
+  <si>
+    <t>N6.3</t>
+  </si>
+  <si>
+    <t>Inversione contabile – subappalto nel settore edile</t>
+  </si>
+  <si>
+    <t>N6.4</t>
+  </si>
+  <si>
+    <t>Inversione contabile – cessione di fabbricati</t>
+  </si>
+  <si>
+    <t>N6.5</t>
+  </si>
+  <si>
+    <t>Inversione contabile – cessione di telefoni cellulari</t>
+  </si>
+  <si>
+    <t>N6.6</t>
+  </si>
+  <si>
+    <t>Inversione contabile – cessione di prodotti elettronici</t>
+  </si>
+  <si>
+    <t>N6.7</t>
+  </si>
+  <si>
+    <t>Inversione contabile – prestazioni comparto edile e settori connessi</t>
+  </si>
+  <si>
+    <t>N6.8</t>
+  </si>
+  <si>
+    <t>Inversione contabile – operazioni settore energetico</t>
+  </si>
+  <si>
+    <t>N6.9</t>
+  </si>
+  <si>
+    <t>Inversione contabile – altri casi</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>IVA assolta in altro stato UE</t>
+  </si>
+  <si>
+    <t>IVA assolta in altro stato UE (vendite a distanza ex art. 40 c. 3 e 4 e art. 41 c. 1 lett. b,  DL 331/93; prestazione di servizi di telecomunicazioni, tele-radiodiffusione ed elettronici ex art. 7-sexies lett. f, g, art. 74- sexies DPR 633/72).</t>
   </si>
 </sst>
 </file>
@@ -365,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,64 +604,72 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>31</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,226 +687,534 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
